--- a/2-1/Investment/stat_exercise_template(1).xlsx
+++ b/2-1/Investment/stat_exercise_template(1).xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ds\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ll112\Desktop\korea_university-master\2-1\Investment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17196" windowHeight="5460" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="XOM" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">table!$S$37</definedName>
-    <definedName name="solver_lhs2" localSheetId="3" hidden="1">table!$U$48</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">table!$X$70:$Z$70</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
@@ -41,7 +41,7 @@
     <definedName name="solver_rel1" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rhs2" localSheetId="3" hidden="1">table!$T$58</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">2</definedName>
@@ -84,6 +84,30 @@
           </rPr>
           <t xml:space="preserve">
 This model only explains 16.82% of total data.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jinkyu lee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+D3 : mean square reisdual</t>
         </r>
       </text>
     </comment>
@@ -139,8 +163,43 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>jinkyu lee</author>
+  </authors>
+  <commentList>
+    <comment ref="V82" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jinkyu lee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+mean square reisdual of apple 
+sheet1 - D3</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="131">
   <si>
     <t>Date</t>
   </si>
@@ -606,6 +665,27 @@
   </si>
   <si>
     <t>Predicted KGC</t>
+  </si>
+  <si>
+    <t>constarint : w1+w2+w3 = 1</t>
+  </si>
+  <si>
+    <t>&lt;- object cell for sharpe ratio</t>
+  </si>
+  <si>
+    <t>&lt;- object cell for minimum variance frontier</t>
+  </si>
+  <si>
+    <t>&lt; - changing variable for both</t>
+  </si>
+  <si>
+    <t>&lt;- data analysis</t>
+  </si>
+  <si>
+    <t>&lt;-get from analysts</t>
+  </si>
+  <si>
+    <t>error..</t>
   </si>
 </sst>
 </file>
@@ -1609,15 +1689,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -1631,6 +1702,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10464,13 +10544,13 @@
                 <c:formatCode>0.0000_ </c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.22511506635721151</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.19398980083463185</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.16320085216405464</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.13298202476746399</c:v>
@@ -10506,13 +10586,13 @@
                 <c:formatCode>0.0000_ </c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4.0000000048279742E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.5999999990800752E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.1999999980841951E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.7999999980841947E-2</c:v>
@@ -10578,7 +10658,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5.634869506788396E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10589,6 +10669,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.6128720210600866E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -11276,7 +11359,7 @@
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -13883,12 +13966,12 @@
   <dimension ref="A1:I239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -13898,10 +13981,10 @@
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1"/>
     <row r="3" spans="1:9">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="69"/>
+      <c r="B3" s="66"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="60" t="s">
@@ -13949,20 +14032,20 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="68"/>
-      <c r="B11" s="68" t="s">
+      <c r="A11" s="65"/>
+      <c r="B11" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="65" t="s">
         <v>93</v>
       </c>
     </row>
@@ -14018,29 +14101,29 @@
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1"/>
     <row r="16" spans="1:9">
-      <c r="A16" s="68"/>
-      <c r="B16" s="68" t="s">
+      <c r="A16" s="65"/>
+      <c r="B16" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="68" t="s">
+      <c r="D16" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="68" t="s">
+      <c r="E16" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="68" t="s">
+      <c r="F16" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="G16" s="68" t="s">
+      <c r="G16" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="68" t="s">
+      <c r="H16" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="I16" s="68" t="s">
+      <c r="I16" s="65" t="s">
         <v>100</v>
       </c>
     </row>
@@ -14117,30 +14200,33 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1">
+      <c r="C23" t="s">
+        <v>130</v>
+      </c>
       <c r="H23" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="68" t="s">
+      <c r="C24" s="65" t="s">
         <v>104</v>
       </c>
       <c r="E24" t="s">
         <v>113</v>
       </c>
-      <c r="F24" s="71" t="s">
+      <c r="F24" s="68" t="s">
         <v>115</v>
       </c>
       <c r="G24">
         <v>1.96</v>
       </c>
-      <c r="H24" s="70">
+      <c r="H24" s="67">
         <v>0.05</v>
       </c>
       <c r="I24" t="s">
@@ -14163,7 +14249,7 @@
       <c r="G25">
         <v>2.58</v>
       </c>
-      <c r="H25" s="70">
+      <c r="H25" s="67">
         <v>0.01</v>
       </c>
       <c r="I25" t="s">
@@ -14228,13 +14314,13 @@
       <c r="E29" t="s">
         <v>122</v>
       </c>
-      <c r="F29" s="71" t="s">
+      <c r="F29" s="68" t="s">
         <v>115</v>
       </c>
       <c r="G29">
         <v>1.96</v>
       </c>
-      <c r="H29" s="70">
+      <c r="H29" s="67">
         <v>0.05</v>
       </c>
       <c r="I29" t="s">
@@ -14257,7 +14343,7 @@
       <c r="G30">
         <v>2.58</v>
       </c>
-      <c r="H30" s="70">
+      <c r="H30" s="67">
         <v>0.01</v>
       </c>
       <c r="I30" t="s">
@@ -16564,6 +16650,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -16574,11 +16661,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I239"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -16587,10 +16674,10 @@
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1"/>
     <row r="3" spans="1:9">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="69"/>
+      <c r="B3" s="66"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="60" t="s">
@@ -16638,20 +16725,20 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="68"/>
-      <c r="B11" s="68" t="s">
+      <c r="A11" s="65"/>
+      <c r="B11" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="65" t="s">
         <v>93</v>
       </c>
     </row>
@@ -16707,29 +16794,29 @@
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1"/>
     <row r="16" spans="1:9">
-      <c r="A16" s="68"/>
-      <c r="B16" s="68" t="s">
+      <c r="A16" s="65"/>
+      <c r="B16" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="68" t="s">
+      <c r="D16" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="68" t="s">
+      <c r="E16" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="68" t="s">
+      <c r="F16" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="G16" s="68" t="s">
+      <c r="G16" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="68" t="s">
+      <c r="H16" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="I16" s="68" t="s">
+      <c r="I16" s="65" t="s">
         <v>100</v>
       </c>
     </row>
@@ -16798,13 +16885,13 @@
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1"/>
     <row r="24" spans="1:9">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="C24" s="68" t="s">
+      <c r="C24" s="65" t="s">
         <v>104</v>
       </c>
     </row>
@@ -19174,37 +19261,38 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AA222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S8" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView tabSelected="1" topLeftCell="D74" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V91" sqref="V91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.08984375" customWidth="1"/>
-    <col min="21" max="22" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.36328125" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.109375" customWidth="1"/>
+    <col min="21" max="22" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
       <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
@@ -19212,11 +19300,11 @@
         <v>12</v>
       </c>
       <c r="G1" s="5"/>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
@@ -19224,12 +19312,12 @@
         <v>13</v>
       </c>
       <c r="M1" s="5"/>
-      <c r="N1" s="65" t="s">
+      <c r="N1" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
       <c r="R1" s="27"/>
     </row>
     <row r="2" spans="1:26">
@@ -19252,12 +19340,12 @@
         <v>7</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="66" t="s">
+      <c r="H2" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
       <c r="S2" s="2"/>
       <c r="T2" s="7" t="s">
         <v>17</v>
@@ -19272,7 +19360,7 @@
         <v>32</v>
       </c>
       <c r="Y2" s="8"/>
-      <c r="Z2" s="67">
+      <c r="Z2" s="64">
         <f>AVERAGE(L4:L218)</f>
         <v>2.4048449612403149E-3</v>
       </c>
@@ -19470,7 +19558,9 @@
         <f>XOM!B17</f>
         <v>6.9499775957174246E-3</v>
       </c>
-      <c r="X5" s="9"/>
+      <c r="X5" s="9" t="s">
+        <v>128</v>
+      </c>
       <c r="Y5" s="17" t="s">
         <v>35</v>
       </c>
@@ -21407,10 +21497,18 @@
       <c r="T33" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="U33" s="51"/>
-      <c r="V33" s="51"/>
-      <c r="W33" s="51"/>
-      <c r="X33" s="9"/>
+      <c r="U33" s="51">
+        <v>0.28051838879965968</v>
+      </c>
+      <c r="V33" s="51">
+        <v>3.2891687047904551E-2</v>
+      </c>
+      <c r="W33" s="51">
+        <v>0.68658992415243558</v>
+      </c>
+      <c r="X33" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
     </row>
@@ -21474,7 +21572,7 @@
       </c>
       <c r="S34">
         <f>U33</f>
-        <v>0</v>
+        <v>0.28051838879965968</v>
       </c>
       <c r="T34" s="11" t="s">
         <v>3</v>
@@ -21555,7 +21653,7 @@
       </c>
       <c r="S35">
         <f>V33</f>
-        <v>0</v>
+        <v>3.2891687047904551E-2</v>
       </c>
       <c r="T35" s="12" t="s">
         <v>1</v>
@@ -21570,7 +21668,9 @@
         <v>1.053150769632742E-3</v>
       </c>
       <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
+      <c r="Y35" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="Z35" s="9"/>
     </row>
     <row r="36" spans="1:26">
@@ -21633,7 +21733,7 @@
       </c>
       <c r="S36">
         <f>W33</f>
-        <v>0</v>
+        <v>0.68658992415243558</v>
       </c>
       <c r="T36" s="12" t="s">
         <v>28</v>
@@ -21708,7 +21808,7 @@
       </c>
       <c r="S37" s="10">
         <f>SUM(S34:S36)</f>
-        <v>0</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="T37" s="9"/>
       <c r="U37" s="9"/>
@@ -21841,15 +21941,15 @@
       <c r="T39" s="9"/>
       <c r="U39" s="9">
         <f>$S34*U$33*U34</f>
-        <v>0</v>
+        <v>1.4758801625645705E-3</v>
       </c>
       <c r="V39" s="9">
         <f t="shared" ref="V39:W41" si="14">$S34*V$33*V34</f>
-        <v>0</v>
+        <v>1.3729245588701248E-5</v>
       </c>
       <c r="W39" s="9">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2.0493125796415299E-4</v>
       </c>
       <c r="X39" s="9"/>
       <c r="Y39" s="9"/>
@@ -21913,15 +22013,15 @@
       <c r="T40" s="9"/>
       <c r="U40" s="9">
         <f>V39</f>
-        <v>0</v>
+        <v>1.3729245588701248E-5</v>
       </c>
       <c r="V40" s="9">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2.656163511514086E-5</v>
       </c>
       <c r="W40" s="9">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2.3783410109817355E-5</v>
       </c>
       <c r="X40" s="9"/>
       <c r="Y40" s="9"/>
@@ -21985,15 +22085,15 @@
       <c r="T41" s="9"/>
       <c r="U41" s="9">
         <f>W39</f>
-        <v>0</v>
+        <v>2.0493125796415299E-4</v>
       </c>
       <c r="V41" s="9">
         <f>W40</f>
-        <v>0</v>
+        <v>2.3783410109817355E-5</v>
       </c>
       <c r="W41" s="9">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.1878458108483161E-3</v>
       </c>
       <c r="X41" s="9"/>
       <c r="Y41" s="9"/>
@@ -22185,15 +22285,15 @@
       </c>
       <c r="U44" s="9">
         <f>SUM(U39:U41)</f>
-        <v>0</v>
+        <v>1.6945406661174247E-3</v>
       </c>
       <c r="V44" s="9">
         <f t="shared" ref="V44:W44" si="15">SUM(V39:V41)</f>
-        <v>0</v>
+        <v>6.407429081365946E-5</v>
       </c>
       <c r="W44" s="9">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1.4165604789222865E-3</v>
       </c>
       <c r="X44" s="9"/>
       <c r="Y44" s="9"/>
@@ -22259,9 +22359,11 @@
       </c>
       <c r="U45" s="31">
         <f>SUM(U44:W44)</f>
-        <v>0</v>
-      </c>
-      <c r="V45" s="9"/>
+        <v>3.1751754358533705E-3</v>
+      </c>
+      <c r="V45" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="W45" s="9"/>
       <c r="X45" s="9"/>
       <c r="Y45" s="9"/>
@@ -22387,15 +22489,15 @@
       </c>
       <c r="U47" s="9">
         <f>U33*U29</f>
-        <v>0</v>
+        <v>7.9988194421515436E-3</v>
       </c>
       <c r="V47" s="9">
         <f t="shared" ref="V47:W47" si="16">V33*V29</f>
-        <v>0</v>
+        <v>3.5604261110010752E-4</v>
       </c>
       <c r="W47" s="9">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>7.7738581573492142E-3</v>
       </c>
       <c r="X47" s="9"/>
       <c r="Y47" s="9"/>
@@ -22461,7 +22563,7 @@
       </c>
       <c r="U48" s="31">
         <f>SUM(U47:W47)</f>
-        <v>0</v>
+        <v>1.6128720210600866E-2</v>
       </c>
       <c r="V48" s="9"/>
       <c r="W48" s="9"/>
@@ -22590,11 +22692,13 @@
       <c r="T50" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="U50" s="31" t="e">
+      <c r="U50" s="31">
         <f>(U48-Z2)/SQRT(U45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V50" s="9"/>
+        <v>0.24355267203308315</v>
+      </c>
+      <c r="V50" s="9" t="s">
+        <v>125</v>
+      </c>
       <c r="W50" s="9"/>
       <c r="X50" s="9"/>
       <c r="Y50" s="9"/>
@@ -22933,17 +23037,25 @@
       <c r="T55" s="26">
         <v>0.04</v>
       </c>
-      <c r="U55" s="49"/>
-      <c r="V55" s="49"/>
-      <c r="W55" s="49"/>
-      <c r="X55" s="53"/>
+      <c r="U55" s="49">
+        <v>1.665111999100499</v>
+      </c>
+      <c r="V55" s="49">
+        <v>-0.10241032038997405</v>
+      </c>
+      <c r="W55" s="49">
+        <v>-0.56270167871052523</v>
+      </c>
+      <c r="X55" s="53">
+        <v>5.0676793101011738E-2</v>
+      </c>
       <c r="Y55" s="24">
         <f t="shared" ref="Y55:Y57" si="17">SQRT(X55)</f>
-        <v>0</v>
+        <v>0.22511506635721151</v>
       </c>
       <c r="Z55" s="24">
         <f>U55*$U$29+V55*$V$29+W55*$W$29</f>
-        <v>0</v>
+        <v>4.0000000048279742E-2</v>
       </c>
     </row>
     <row r="56" spans="1:27">
@@ -23004,17 +23116,25 @@
       <c r="T56" s="26">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="U56" s="49"/>
-      <c r="V56" s="49"/>
-      <c r="W56" s="49"/>
-      <c r="X56" s="53"/>
+      <c r="U56" s="49">
+        <v>1.4331020439833289</v>
+      </c>
+      <c r="V56" s="49">
+        <v>-7.9738450345180859E-2</v>
+      </c>
+      <c r="W56" s="49">
+        <v>-0.35336359363814801</v>
+      </c>
+      <c r="X56" s="53">
+        <v>3.7632042827860132E-2</v>
+      </c>
       <c r="Y56" s="24">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.19398980083463185</v>
       </c>
       <c r="Z56" s="24">
         <f t="shared" ref="Z56:Z65" si="18">U56*$U$29+V56*$V$29+W56*$W$29</f>
-        <v>0</v>
+        <v>3.5999999990800752E-2</v>
       </c>
     </row>
     <row r="57" spans="1:27">
@@ -23075,17 +23195,25 @@
       <c r="T57" s="26">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="U57" s="49"/>
-      <c r="V57" s="49"/>
-      <c r="W57" s="49"/>
-      <c r="X57" s="53"/>
+      <c r="U57" s="49">
+        <v>1.2010920916224479</v>
+      </c>
+      <c r="V57" s="49">
+        <v>-5.7066580569737596E-2</v>
+      </c>
+      <c r="W57" s="49">
+        <v>-0.14402551105271033</v>
+      </c>
+      <c r="X57" s="53">
+        <v>2.663451814707362E-2</v>
+      </c>
       <c r="Y57" s="24">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.16320085216405464</v>
       </c>
       <c r="Z57" s="24">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3.1999999980841951E-2</v>
       </c>
     </row>
     <row r="58" spans="1:27">
@@ -23891,9 +24019,9 @@
         <v>46</v>
       </c>
       <c r="U68" s="34"/>
-      <c r="V68" s="32" t="e">
+      <c r="V68" s="32">
         <f>(V71-$Z$2)/V70</f>
-        <v>#DIV/0!</v>
+        <v>0.24355267203308315</v>
       </c>
       <c r="X68" s="12" t="s">
         <v>20</v>
@@ -23963,7 +24091,9 @@
       <c r="U69" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="V69" s="54"/>
+      <c r="V69" s="54">
+        <v>3.1751754358533705E-3</v>
+      </c>
       <c r="X69" s="35" t="s">
         <v>24</v>
       </c>
@@ -24034,11 +24164,17 @@
       </c>
       <c r="V70">
         <f>SQRT(V69)</f>
-        <v>0</v>
-      </c>
-      <c r="X70" s="54"/>
-      <c r="Y70" s="54"/>
-      <c r="Z70" s="54"/>
+        <v>5.634869506788396E-2</v>
+      </c>
+      <c r="X70" s="54">
+        <v>0.28051838879965968</v>
+      </c>
+      <c r="Y70" s="54">
+        <v>3.2891687047904551E-2</v>
+      </c>
+      <c r="Z70" s="54">
+        <v>0.68658992415243558</v>
+      </c>
     </row>
     <row r="71" spans="1:26">
       <c r="A71" s="1">
@@ -24098,7 +24234,9 @@
       <c r="U71" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="V71" s="54"/>
+      <c r="V71" s="54">
+        <v>1.6128720210600866E-2</v>
+      </c>
     </row>
     <row r="72" spans="1:26">
       <c r="A72" s="1">
@@ -24621,8 +24759,15 @@
       <c r="U80" t="s">
         <v>57</v>
       </c>
-      <c r="V80" s="59"/>
-      <c r="W80" s="59"/>
+      <c r="V80" s="59">
+        <v>2E-3</v>
+      </c>
+      <c r="W80" s="59">
+        <v>1E-3</v>
+      </c>
+      <c r="X80" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="81" spans="1:24">
       <c r="A81" s="1">
@@ -24749,7 +24894,9 @@
       <c r="U82" t="s">
         <v>59</v>
       </c>
-      <c r="V82" s="54"/>
+      <c r="V82" s="54">
+        <v>1.5697584265741523E-2</v>
+      </c>
       <c r="W82">
         <f>XOM!D13</f>
         <v>1.9679552838800882E-3</v>
@@ -24869,9 +25016,9 @@
       <c r="U84" t="s">
         <v>52</v>
       </c>
-      <c r="W84" t="e">
+      <c r="W84">
         <f>V80/V82</f>
-        <v>#DIV/0!</v>
+        <v>0.12740813912143215</v>
       </c>
     </row>
     <row r="85" spans="1:24">
@@ -24934,7 +25081,7 @@
       </c>
       <c r="W85">
         <f>W80/W82</f>
-        <v>0</v>
+        <v>0.5081416270944763</v>
       </c>
     </row>
     <row r="86" spans="1:24">
@@ -24995,9 +25142,9 @@
       <c r="U86" t="s">
         <v>54</v>
       </c>
-      <c r="W86" t="e">
+      <c r="W86">
         <f>W84+W85</f>
-        <v>#DIV/0!</v>
+        <v>0.63554976621590842</v>
       </c>
     </row>
     <row r="87" spans="1:24">
@@ -25114,7 +25261,10 @@
       <c r="U88" t="s">
         <v>60</v>
       </c>
-      <c r="W88" s="54"/>
+      <c r="W88" s="54">
+        <f>W84/W86</f>
+        <v>0.20046917785844826</v>
+      </c>
     </row>
     <row r="89" spans="1:24">
       <c r="A89" s="1">
@@ -25174,9 +25324,9 @@
       <c r="U89" t="s">
         <v>61</v>
       </c>
-      <c r="W89" t="e">
+      <c r="W89">
         <f>W85/W86</f>
-        <v>#DIV/0!</v>
+        <v>0.7995308221415518</v>
       </c>
     </row>
     <row r="90" spans="1:24">
@@ -25293,9 +25443,9 @@
       <c r="U91" t="s">
         <v>55</v>
       </c>
-      <c r="W91" t="e">
+      <c r="W91">
         <f>V80*W88+W80*W89</f>
-        <v>#DIV/0!</v>
+        <v>1.2004691778584483E-3</v>
       </c>
     </row>
     <row r="92" spans="1:24">
@@ -25356,9 +25506,9 @@
       <c r="U92" t="s">
         <v>62</v>
       </c>
-      <c r="W92" t="e">
+      <c r="W92">
         <f>W88*V81+W89*W81</f>
-        <v>#DIV/0!</v>
+        <v>0.66213040038068549</v>
       </c>
     </row>
     <row r="93" spans="1:24">
@@ -25419,9 +25569,9 @@
       <c r="U93" t="s">
         <v>63</v>
       </c>
-      <c r="W93" t="e">
+      <c r="W93">
         <f>W88^2*V82+W89^2*W82</f>
-        <v>#DIV/0!</v>
+        <v>1.888867310904849E-3</v>
       </c>
     </row>
     <row r="94" spans="1:24">
@@ -25538,7 +25688,10 @@
       <c r="U95" t="s">
         <v>65</v>
       </c>
-      <c r="W95" s="54"/>
+      <c r="W95" s="54">
+        <f>(W91/W93)/(V2/_xlfn.VAR.S(K4:K218))</f>
+        <v>0.34310090454245662</v>
+      </c>
       <c r="X95" t="s">
         <v>67</v>
       </c>
@@ -25601,7 +25754,10 @@
       <c r="U96" t="s">
         <v>64</v>
       </c>
-      <c r="W96" s="54"/>
+      <c r="W96" s="54">
+        <f>W95/(1+(1-W92)*W95)</f>
+        <v>0.30745919946445471</v>
+      </c>
     </row>
     <row r="97" spans="1:23">
       <c r="A97" s="1">
@@ -25661,7 +25817,10 @@
       <c r="U97" t="s">
         <v>66</v>
       </c>
-      <c r="W97" s="54"/>
+      <c r="W97" s="54">
+        <f>1-W96</f>
+        <v>0.69254080053554534</v>
+      </c>
     </row>
     <row r="98" spans="1:23">
       <c r="A98" s="1">
@@ -25779,7 +25938,7 @@
       </c>
       <c r="W99" s="40">
         <f>W97</f>
-        <v>0</v>
+        <v>0.69254080053554534</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -25842,7 +26001,7 @@
       </c>
       <c r="W100" s="41">
         <f>W96</f>
-        <v>0</v>
+        <v>0.30745919946445471</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -25905,7 +26064,7 @@
       </c>
       <c r="W101" s="41">
         <f>W96*W88</f>
-        <v>0</v>
+        <v>6.1636092941655889E-2</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -25966,9 +26125,9 @@
       <c r="V102" t="s">
         <v>71</v>
       </c>
-      <c r="W102" s="42" t="e">
+      <c r="W102" s="42">
         <f>W96*W89</f>
-        <v>#DIV/0!</v>
+        <v>0.24582310652279885</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -32499,5 +32658,6 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>